--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40B744B-3981-435E-8B6E-C1F54A2B5FC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>System</t>
   </si>
@@ -57,18 +58,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -123,22 +112,145 @@
     <t>EN_08002</t>
   </si>
   <si>
-    <t>EN_08003</t>
-  </si>
-  <si>
-    <t>EN_08004</t>
-  </si>
-  <si>
-    <t>EN_08005</t>
-  </si>
-  <si>
-    <t>EN_08006</t>
+    <t>Honda CBR600RR Engine</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Engine sprocket</t>
+  </si>
+  <si>
+    <t>PAIR plate</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Permit to close the PAIR sensors</t>
+  </si>
+  <si>
+    <t>Adaptator oil pressure</t>
+  </si>
+  <si>
+    <t>Permit to plug our oil pressure sensors</t>
+  </si>
+  <si>
+    <t>Oil sump shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contain engine's oil </t>
+  </si>
+  <si>
+    <t>Permit to limit the oil displacement in the oil sump</t>
+  </si>
+  <si>
+    <t>Oil overflow</t>
+  </si>
+  <si>
+    <t>Water overflow</t>
+  </si>
+  <si>
+    <t>Contain the oil overflow</t>
+  </si>
+  <si>
+    <t>Contain the water overflow</t>
+  </si>
+  <si>
+    <t>EN_01007</t>
+  </si>
+  <si>
+    <t>EN_01008</t>
+  </si>
+  <si>
+    <t>EN_01009</t>
+  </si>
+  <si>
+    <t>Anti-planing plate</t>
+  </si>
+  <si>
+    <t>Oil filter</t>
+  </si>
+  <si>
+    <t>Spark plugs</t>
+  </si>
+  <si>
+    <t>Wet slipper clutch</t>
+  </si>
+  <si>
+    <t>Thermostat</t>
+  </si>
+  <si>
+    <t>EN_01010</t>
+  </si>
+  <si>
+    <t>EN_01011</t>
+  </si>
+  <si>
+    <t>Smooth clutch discs</t>
+  </si>
+  <si>
+    <t>EN_01012</t>
+  </si>
+  <si>
+    <t>Lined clutch discs</t>
+  </si>
+  <si>
+    <t>Shifter gear</t>
+  </si>
+  <si>
+    <t>Shifter axis</t>
+  </si>
+  <si>
+    <t>Permit to adjust the speed rotation between the shifter axis and the gear box selector</t>
+  </si>
+  <si>
+    <t>Permit to transmit the rotation of the gear motor into the gear box selector</t>
+  </si>
+  <si>
+    <t>EN_01013</t>
+  </si>
+  <si>
+    <t>EN_01014</t>
+  </si>
+  <si>
+    <t>Permit to select the gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear reducer </t>
+  </si>
+  <si>
+    <t>Permit to reduce the speed of the electrical engine</t>
+  </si>
+  <si>
+    <t>Electrical engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear motor support front </t>
+  </si>
+  <si>
+    <t>Gear moto support rear</t>
+  </si>
+  <si>
+    <t>Permit to maintain the electrical engine in the correct axis</t>
+  </si>
+  <si>
+    <t>EN_01015</t>
+  </si>
+  <si>
+    <t>EN_01016</t>
+  </si>
+  <si>
+    <t>EN_01017</t>
+  </si>
+  <si>
+    <t>EN_01018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -258,11 +370,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -273,6 +411,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,21 +697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="72.88671875" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -581,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -598,263 +742,400 @@
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>27</v>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E19:E20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40B744B-3981-435E-8B6E-C1F54A2B5FC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5CFA2A-730D-40F0-8B57-7679A3C91262}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>System</t>
   </si>
@@ -245,6 +245,42 @@
   </si>
   <si>
     <t>EN_01018</t>
+  </si>
+  <si>
+    <t>Drain plug</t>
+  </si>
+  <si>
+    <t>Threaded adapter</t>
+  </si>
+  <si>
+    <t>It is weld on the oil sump shell for drain the oil system</t>
+  </si>
+  <si>
+    <t>Permit to close the oil system</t>
+  </si>
+  <si>
+    <t>Join plate</t>
+  </si>
+  <si>
+    <t>Permit to attach the oil system to the engine</t>
+  </si>
+  <si>
+    <t>EN_01019</t>
+  </si>
+  <si>
+    <t>EN_01020</t>
+  </si>
+  <si>
+    <t>EN_01021</t>
+  </si>
+  <si>
+    <t>Mechanical coopling</t>
+  </si>
+  <si>
+    <t>Permit to attach the shifter axis and the axis of the gear motor</t>
+  </si>
+  <si>
+    <t>EN_01022</t>
   </si>
 </sst>
 </file>
@@ -400,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -411,6 +447,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -698,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,13 +991,13 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -971,13 +1010,13 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -990,13 +1029,13 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1009,13 +1048,13 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1024,17 +1063,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1047,13 +1086,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1066,12 +1105,14 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
@@ -1079,62 +1120,134 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
+    <row r="21" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5CFA2A-730D-40F0-8B57-7679A3C91262}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F637107-F990-4B8A-9BC0-6B8046B9F5FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>System</t>
   </si>
@@ -118,9 +118,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Engine sprocket</t>
-  </si>
-  <si>
     <t>PAIR plate</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
   </si>
   <si>
     <t>Permit to attach the shifter axis and the axis of the gear motor</t>
-  </si>
-  <si>
-    <t>EN_01022</t>
   </si>
 </sst>
 </file>
@@ -737,11 +731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +750,7 @@
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +772,9 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -794,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -811,11 +806,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
@@ -828,11 +823,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -845,11 +840,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
@@ -862,11 +857,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -879,11 +874,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
@@ -896,11 +891,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
@@ -910,126 +905,128 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>21</v>
@@ -1041,102 +1038,102 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1146,65 +1143,65 @@
         <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1223,31 +1220,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F637107-F990-4B8A-9BC0-6B8046B9F5FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98DD4B-BD0F-4C1B-9D52-D33B62201D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18960" yWindow="2004" windowWidth="17280" windowHeight="8028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>System</t>
   </si>
@@ -184,15 +184,9 @@
     <t>EN_01011</t>
   </si>
   <si>
-    <t>Smooth clutch discs</t>
-  </si>
-  <si>
     <t>EN_01012</t>
   </si>
   <si>
-    <t>Lined clutch discs</t>
-  </si>
-  <si>
     <t>Shifter gear</t>
   </si>
   <si>
@@ -211,70 +205,28 @@
     <t>EN_01014</t>
   </si>
   <si>
-    <t>Permit to select the gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear reducer </t>
-  </si>
-  <si>
-    <t>Permit to reduce the speed of the electrical engine</t>
-  </si>
-  <si>
-    <t>Electrical engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear motor support front </t>
-  </si>
-  <si>
-    <t>Gear moto support rear</t>
-  </si>
-  <si>
-    <t>Permit to maintain the electrical engine in the correct axis</t>
+    <t>Drain plug</t>
+  </si>
+  <si>
+    <t>Threaded adapter</t>
+  </si>
+  <si>
+    <t>It is weld on the oil sump shell for drain the oil system</t>
+  </si>
+  <si>
+    <t>Permit to close the oil system</t>
+  </si>
+  <si>
+    <t>Join plate</t>
+  </si>
+  <si>
+    <t>Permit to attach the oil system to the engine</t>
+  </si>
+  <si>
+    <t>Fuel injectors</t>
   </si>
   <si>
     <t>EN_01015</t>
-  </si>
-  <si>
-    <t>EN_01016</t>
-  </si>
-  <si>
-    <t>EN_01017</t>
-  </si>
-  <si>
-    <t>EN_01018</t>
-  </si>
-  <si>
-    <t>Drain plug</t>
-  </si>
-  <si>
-    <t>Threaded adapter</t>
-  </si>
-  <si>
-    <t>It is weld on the oil sump shell for drain the oil system</t>
-  </si>
-  <si>
-    <t>Permit to close the oil system</t>
-  </si>
-  <si>
-    <t>Join plate</t>
-  </si>
-  <si>
-    <t>Permit to attach the oil system to the engine</t>
-  </si>
-  <si>
-    <t>EN_01019</t>
-  </si>
-  <si>
-    <t>EN_01020</t>
-  </si>
-  <si>
-    <t>EN_01021</t>
-  </si>
-  <si>
-    <t>Mechanical coopling</t>
-  </si>
-  <si>
-    <t>Permit to attach the shifter axis and the axis of the gear motor</t>
   </si>
 </sst>
 </file>
@@ -351,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -400,37 +352,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -441,15 +367,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,11 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +661,7 @@
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="72.88671875" customWidth="1"/>
+    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -827,7 +744,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -844,14 +761,14 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
@@ -861,14 +778,14 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -878,7 +795,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
@@ -895,14 +812,16 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>34</v>
@@ -912,16 +831,16 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>35</v>
@@ -931,13 +850,13 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -950,13 +869,13 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -969,13 +888,13 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -988,245 +907,132 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E21:E22"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98DD4B-BD0F-4C1B-9D52-D33B62201D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D05B104-A541-4413-BA15-4E5AB4003752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="2004" windowWidth="17280" windowHeight="8028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7476" yWindow="3180" windowWidth="17280" windowHeight="8028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>System</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Anti-planing plate</t>
   </si>
   <si>
-    <t>Oil filter</t>
-  </si>
-  <si>
     <t>Spark plugs</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
   </si>
   <si>
     <t>Fuel injectors</t>
-  </si>
-  <si>
-    <t>EN_01015</t>
   </si>
 </sst>
 </file>
@@ -648,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +655,7 @@
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -727,14 +721,14 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
@@ -744,7 +738,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -768,7 +762,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
@@ -795,14 +789,16 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
@@ -812,16 +808,16 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>34</v>
@@ -831,13 +827,13 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -850,13 +846,13 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -869,45 +865,45 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>21</v>
@@ -919,116 +915,97 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D05B104-A541-4413-BA15-4E5AB4003752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9CC7F-AA9E-4C0D-B381-28F45D912526}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7476" yWindow="3180" windowWidth="17280" windowHeight="8028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="3036" windowWidth="17280" windowHeight="8028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -971,7 +971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -990,7 +990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9CC7F-AA9E-4C0D-B381-28F45D912526}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="3036" windowWidth="17280" windowHeight="8028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="3036" windowWidth="17280" windowHeight="8028"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>System</t>
   </si>
@@ -222,11 +221,17 @@
   <si>
     <t>Fuel injectors</t>
   </si>
+  <si>
+    <t>Second-hand, PC40</t>
+  </si>
+  <si>
+    <t>From PC37, outlet at the opposite of PC40 version</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,21 +646,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="53.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -709,7 +714,9 @@
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
@@ -777,7 +784,9 @@
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
@@ -918,7 +927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -937,7 +946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -971,7 +980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -990,7 +999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EC3C4-DCE7-4186-B774-9D5870C19027}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="3036" windowWidth="17280" windowHeight="8028"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>System</t>
   </si>
@@ -201,18 +202,6 @@
     <t>EN_01014</t>
   </si>
   <si>
-    <t>Drain plug</t>
-  </si>
-  <si>
-    <t>Threaded adapter</t>
-  </si>
-  <si>
-    <t>It is weld on the oil sump shell for drain the oil system</t>
-  </si>
-  <si>
-    <t>Permit to close the oil system</t>
-  </si>
-  <si>
     <t>Join plate</t>
   </si>
   <si>
@@ -226,12 +215,21 @@
   </si>
   <si>
     <t>From PC37, outlet at the opposite of PC40 version</t>
+  </si>
+  <si>
+    <t>Smooth clutch disc</t>
+  </si>
+  <si>
+    <t>Lining clutch disc</t>
+  </si>
+  <si>
+    <t>Discs of the clutch system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -351,11 +349,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -365,6 +389,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,15 +676,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
@@ -715,7 +745,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -728,7 +758,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
@@ -785,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -855,13 +885,13 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -893,16 +923,16 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>52</v>
+      <c r="E13" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>42</v>
@@ -912,16 +942,14 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>43</v>
@@ -1019,6 +1047,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E13:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EC3C4-DCE7-4186-B774-9D5870C19027}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>System</t>
   </si>
@@ -139,9 +138,6 @@
     <t xml:space="preserve">Contain engine's oil </t>
   </si>
   <si>
-    <t>Permit to limit the oil displacement in the oil sump</t>
-  </si>
-  <si>
     <t>Oil overflow</t>
   </si>
   <si>
@@ -190,12 +186,6 @@
     <t>Shifter axis</t>
   </si>
   <si>
-    <t>Permit to adjust the speed rotation between the shifter axis and the gear box selector</t>
-  </si>
-  <si>
-    <t>Permit to transmit the rotation of the gear motor into the gear box selector</t>
-  </si>
-  <si>
     <t>EN_01013</t>
   </si>
   <si>
@@ -205,18 +195,12 @@
     <t>Join plate</t>
   </si>
   <si>
-    <t>Permit to attach the oil system to the engine</t>
-  </si>
-  <si>
     <t>Fuel injectors</t>
   </si>
   <si>
     <t>Second-hand, PC40</t>
   </si>
   <si>
-    <t>From PC37, outlet at the opposite of PC40 version</t>
-  </si>
-  <si>
     <t>Smooth clutch disc</t>
   </si>
   <si>
@@ -224,12 +208,24 @@
   </si>
   <si>
     <t>Discs of the clutch system</t>
+  </si>
+  <si>
+    <t>From PC37</t>
+  </si>
+  <si>
+    <t>Attach the oil sump shell to the engine</t>
+  </si>
+  <si>
+    <t>Limit oil displacement in the oil sump</t>
+  </si>
+  <si>
+    <t>Shaft between Shifter and gear motor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,15 +672,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
@@ -745,7 +741,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -758,7 +754,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
@@ -775,7 +771,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -792,7 +788,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
@@ -809,13 +805,13 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -859,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -878,71 +874,71 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4">
         <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>21</v>
@@ -952,45 +948,43 @@
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1012,13 +1006,13 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1031,13 +1025,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -75,9 +75,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>EN_A0001</t>
-  </si>
-  <si>
     <t>EN_01001</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Overflow bottles</t>
   </si>
   <si>
-    <t>EN_A0008</t>
-  </si>
-  <si>
     <t>EN_08001</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>Shaft between Shifter and gear motor</t>
+  </si>
+  <si>
+    <t>EN_A0100</t>
+  </si>
+  <si>
+    <t>EN_A0800</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I19"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,270 +721,270 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F13" s="4">
         <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4">
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -992,52 +992,52 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="EN_A0100" sheetId="2" r:id="rId2"/>
+    <sheet name="EN_A0800" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="71">
   <si>
     <t>System</t>
   </si>
@@ -221,12 +223,54 @@
   <si>
     <t>EN_A0800</t>
   </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Assembly Processes</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>To be completed</t>
+  </si>
+  <si>
+    <t>Tba</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>EN - Engine assembly</t>
+  </si>
+  <si>
+    <t>EN_A0100_P</t>
+  </si>
+  <si>
+    <t>EN - Overflow bottles</t>
+  </si>
+  <si>
+    <t>EN_A0800_P</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +313,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +355,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -371,11 +443,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -386,6 +471,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -675,9 +772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +1021,7 @@
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="4">
@@ -943,7 +1040,7 @@
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="4">
         <v>7</v>
       </c>
@@ -1047,4 +1144,734 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D64E68-C00F-4BA1-9611-ADED7E99725D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
   <si>
     <t>System</t>
   </si>
@@ -265,11 +266,95 @@
   <si>
     <t>EN_A0800_P</t>
   </si>
+  <si>
+    <t>Screw M10x80</t>
+  </si>
+  <si>
+    <t>PAIR Plate</t>
+  </si>
+  <si>
+    <t>Aluminum 2017A</t>
+  </si>
+  <si>
+    <t>Sheet 1mm</t>
+  </si>
+  <si>
+    <t>Laser cut</t>
+  </si>
+  <si>
+    <t>Screw M4x8</t>
+  </si>
+  <si>
+    <t>Sheet 2,5mm</t>
+  </si>
+  <si>
+    <t>Bending</t>
+  </si>
+  <si>
+    <t>Welding</t>
+  </si>
+  <si>
+    <t>Welded to join plate</t>
+  </si>
+  <si>
+    <t>Sheet 8mm</t>
+  </si>
+  <si>
+    <t>Water cut</t>
+  </si>
+  <si>
+    <t>Welded to Oil sump shell</t>
+  </si>
+  <si>
+    <t>Hand finish</t>
+  </si>
+  <si>
+    <t>Reduce 8mm to 2,5mm</t>
+  </si>
+  <si>
+    <t>Anti planning plate</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Shifter Axis</t>
+  </si>
+  <si>
+    <t>Shifter Gear</t>
+  </si>
+  <si>
+    <t>Screw M10x160</t>
+  </si>
+  <si>
+    <t>Steel 30NCD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front engine mount </t>
+  </si>
+  <si>
+    <t>Rear engine mount</t>
+  </si>
+  <si>
+    <t>Joint plate</t>
+  </si>
+  <si>
+    <t>Joint plate on the engine</t>
+  </si>
+  <si>
+    <t>PAIR Plate on the engine</t>
+  </si>
+  <si>
+    <t>Aluminium 2017A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -456,11 +541,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -488,6 +584,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,15 +871,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
@@ -846,6 +948,9 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -863,6 +968,9 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -880,6 +988,9 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H5" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -897,6 +1008,9 @@
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="H6" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -916,6 +1030,9 @@
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H7" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -935,6 +1052,9 @@
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H8" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -954,6 +1074,9 @@
       <c r="G9" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="H9" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -973,6 +1096,9 @@
       <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="H10" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -992,6 +1118,9 @@
       <c r="G11" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="H11" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -1011,6 +1140,9 @@
       <c r="G12" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="H12" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
@@ -1030,6 +1162,9 @@
       <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="H13" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -1047,6 +1182,9 @@
       <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="H14" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -1066,6 +1204,9 @@
       <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H15" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -1082,6 +1223,9 @@
       </c>
       <c r="G16" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1147,14 +1291,644 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="3" width="24.6640625" customWidth="1"/>
@@ -1193,371 +1967,6 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="3"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D64E68-C00F-4BA1-9611-ADED7E99725D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53DAC3-1894-41F3-B210-7A4E3BF29420}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,22 @@
     <sheet name="EN_A0100" sheetId="2" r:id="rId2"/>
     <sheet name="EN_A0800" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
   <si>
     <t>System</t>
   </si>
@@ -243,18 +248,12 @@
     <t>To be completed</t>
   </si>
   <si>
-    <t>Tba</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
     <t>Fasteners</t>
   </si>
   <si>
-    <t>Tooling</t>
-  </si>
-  <si>
     <t>EN - Engine assembly</t>
   </si>
   <si>
@@ -267,9 +266,6 @@
     <t>EN_A0800_P</t>
   </si>
   <si>
-    <t>Screw M10x80</t>
-  </si>
-  <si>
     <t>PAIR Plate</t>
   </si>
   <si>
@@ -282,9 +278,6 @@
     <t>Laser cut</t>
   </si>
   <si>
-    <t>Screw M4x8</t>
-  </si>
-  <si>
     <t>Sheet 2,5mm</t>
   </si>
   <si>
@@ -300,9 +293,6 @@
     <t>Sheet 8mm</t>
   </si>
   <si>
-    <t>Water cut</t>
-  </si>
-  <si>
     <t>Welded to Oil sump shell</t>
   </si>
   <si>
@@ -327,9 +317,6 @@
     <t>Shifter Gear</t>
   </si>
   <si>
-    <t>Screw M10x160</t>
-  </si>
-  <si>
     <t>Steel 30NCD6</t>
   </si>
   <si>
@@ -349,6 +336,42 @@
   </si>
   <si>
     <t>Aluminium 2017A</t>
+  </si>
+  <si>
+    <t>Install Tie wrap</t>
+  </si>
+  <si>
+    <t>Machining (conventionnal)</t>
+  </si>
+  <si>
+    <t>Tighten bolt</t>
+  </si>
+  <si>
+    <t>Fastener install</t>
+  </si>
+  <si>
+    <t>Bolt grade 8,8 M10</t>
+  </si>
+  <si>
+    <t>Bolt grade 8,8 M8</t>
+  </si>
+  <si>
+    <t>Bolt grade 8,8 M4</t>
+  </si>
+  <si>
+    <t>Washer M10</t>
+  </si>
+  <si>
+    <t>Washer M8</t>
+  </si>
+  <si>
+    <t>Washer M4</t>
+  </si>
+  <si>
+    <t>Water jet cut</t>
+  </si>
+  <si>
+    <t>Machining (CNC)</t>
   </si>
 </sst>
 </file>
@@ -580,16 +603,16 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -948,8 +971,8 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>87</v>
+      <c r="H3" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -968,8 +991,8 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>87</v>
+      <c r="H4" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -988,8 +1011,8 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>87</v>
+      <c r="H5" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1008,8 +1031,8 @@
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>87</v>
+      <c r="H6" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1030,8 +1053,8 @@
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>87</v>
+      <c r="H7" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1052,8 +1075,8 @@
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>88</v>
+      <c r="H8" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1074,8 +1097,8 @@
       <c r="G9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>87</v>
+      <c r="H9" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1096,8 +1119,8 @@
       <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>88</v>
+      <c r="H10" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1118,8 +1141,8 @@
       <c r="G11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>88</v>
+      <c r="H11" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1140,8 +1163,8 @@
       <c r="G12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>88</v>
+      <c r="H12" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1153,7 +1176,7 @@
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="4">
@@ -1162,8 +1185,8 @@
       <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>87</v>
+      <c r="H13" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1175,15 +1198,15 @@
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="4">
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>87</v>
+      <c r="H14" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1204,8 +1227,8 @@
       <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>87</v>
+      <c r="H15" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1224,8 +1247,8 @@
       <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>87</v>
+      <c r="H16" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1292,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,9 +1327,9 @@
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1338,7 +1361,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1363,7 +1386,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1371,13 +1394,13 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G4" s="8">
         <v>2</v>
@@ -1389,13 +1412,13 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1407,13 +1430,13 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G6" s="8">
         <v>8</v>
@@ -1425,13 +1448,13 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
@@ -1442,53 +1465,63 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1497,64 +1530,64 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G15" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1563,66 +1596,64 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -1631,14 +1662,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1647,68 +1678,66 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="8">
         <v>2</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>77</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -1717,14 +1746,16 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="G25" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -1733,15 +1764,15 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="8">
+        <v>80</v>
+      </c>
+      <c r="G26" s="9">
         <v>1</v>
       </c>
       <c r="H26" s="7"/>
@@ -1749,7 +1780,7 @@
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>21</v>
@@ -1759,7 +1790,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1770,9 +1801,11 @@
         <v>61</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G28" s="8">
         <v>1</v>
       </c>
@@ -1783,11 +1816,15 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1795,17 +1832,23 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>21</v>
@@ -1815,7 +1858,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1826,7 +1869,7 @@
         <v>61</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8">
@@ -1839,80 +1882,120 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="6" t="s">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
+      <c r="G36" s="8"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
       <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1922,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1967,7 +2050,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1985,14 +2068,14 @@
         <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2000,284 +2083,18 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>63</v>
+      <c r="G4" s="8">
+        <v>8</v>
       </c>
       <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53DAC3-1894-41F3-B210-7A4E3BF29420}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA41527-336A-4E8F-A0A1-01A45BDDB852}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
   <si>
     <t>System</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Install Tie wrap</t>
   </si>
   <si>
-    <t>Machining (conventionnal)</t>
-  </si>
-  <si>
     <t>Tighten bolt</t>
   </si>
   <si>
@@ -372,6 +369,33 @@
   </si>
   <si>
     <t>Machining (CNC)</t>
+  </si>
+  <si>
+    <t>Nut grade 8,8 M10</t>
+  </si>
+  <si>
+    <t>Assemble</t>
+  </si>
+  <si>
+    <t>Put the shifter axis inside the engine</t>
+  </si>
+  <si>
+    <t>Put the shifter gear on the shifter axis</t>
+  </si>
+  <si>
+    <t>Instal the wet slipper clutch</t>
+  </si>
+  <si>
+    <t>Instal the clutch discs</t>
+  </si>
+  <si>
+    <t>Instal the circlips to lock the axis on the engine</t>
+  </si>
+  <si>
+    <t>Circlip</t>
+  </si>
+  <si>
+    <t>Permit to lock the shifter axis inside the engine</t>
   </si>
 </sst>
 </file>
@@ -899,7 +923,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1352,7 @@
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
@@ -1397,7 +1421,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>87</v>
@@ -1415,7 +1439,7 @@
         <v>64</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>88</v>
@@ -1433,7 +1457,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>90</v>
@@ -1451,7 +1475,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>91</v>
@@ -1469,9 +1493,11 @@
         <v>64</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="G8" s="8">
         <v>2</v>
       </c>
@@ -1485,11 +1511,13 @@
         <v>64</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="G9" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -1501,11 +1529,11 @@
         <v>64</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1517,7 +1545,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8">
@@ -1530,14 +1558,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>96</v>
+        <v>64</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -1546,48 +1574,46 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
         <v>15</v>
       </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1598,43 +1624,47 @@
       <c r="D16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>32</v>
-      </c>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -1646,14 +1676,16 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="G19" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -1664,12 +1696,14 @@
       <c r="D20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="G20" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1680,62 +1714,64 @@
       <c r="D21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>75</v>
+      <c r="E21" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="8">
-        <v>2</v>
-      </c>
-      <c r="H23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G24" s="8">
         <v>2</v>
       </c>
@@ -1749,63 +1785,59 @@
         <v>63</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>78</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="8">
         <v>2</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="6" t="s">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="8">
         <v>1</v>
       </c>
@@ -1819,11 +1851,11 @@
         <v>63</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1838,7 +1870,7 @@
         <v>75</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G30" s="8">
         <v>1</v>
@@ -1848,7 +1880,7 @@
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>21</v>
@@ -1858,7 +1890,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1869,11 +1901,13 @@
         <v>61</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G32" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -1885,83 +1919,93 @@
         <v>63</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8">
+        <v>2</v>
+      </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6" t="s">
-        <v>44</v>
-      </c>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2</v>
+      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="E37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8">
@@ -1977,25 +2021,151 @@
         <v>63</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="G39" s="8">
         <v>1</v>
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7"/>
+      <c r="E42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA41527-336A-4E8F-A0A1-01A45BDDB852}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBECD72-AA7B-483D-9E18-703918D4C204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="115">
   <si>
     <t>System</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Put the shifter axis inside the engine</t>
   </si>
   <si>
-    <t>Put the shifter gear on the shifter axis</t>
-  </si>
-  <si>
     <t>Instal the wet slipper clutch</t>
   </si>
   <si>
@@ -396,6 +393,15 @@
   </si>
   <si>
     <t>Permit to lock the shifter axis inside the engine</t>
+  </si>
+  <si>
+    <t>Bolt grade 8.8 M8x40</t>
+  </si>
+  <si>
+    <t>Bolt between shifter gear and the engine mecanism</t>
+  </si>
+  <si>
+    <t>Permit to lock gear on the engine</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,7 +1358,7 @@
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
@@ -1658,16 +1664,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -1676,13 +1682,13 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G19" s="8">
         <v>2</v>
@@ -1694,16 +1700,16 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G20" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1718,7 +1724,7 @@
         <v>105</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -1733,129 +1739,131 @@
         <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="F23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G26" s="8">
         <v>2</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
-        <v>2</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7"/>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G29" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1867,78 +1875,76 @@
         <v>63</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="8">
         <v>1</v>
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
-        <v>33</v>
-      </c>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8">
+        <v>4</v>
+      </c>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8">
-        <v>2</v>
-      </c>
-      <c r="H33" s="7"/>
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" s="8">
         <v>2</v>
@@ -1952,220 +1958,254 @@
       <c r="D35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="9">
-        <v>1</v>
+      <c r="E35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8">
+        <v>2</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6" t="s">
-        <v>38</v>
-      </c>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2</v>
+      </c>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="8">
+        <v>80</v>
+      </c>
+      <c r="G37" s="9">
         <v>1</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7"/>
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="E40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBECD72-AA7B-483D-9E18-703918D4C204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F0C91-63C6-483B-B9AC-8035D7607F69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
   <si>
     <t>System</t>
   </si>
@@ -402,6 +402,21 @@
   </si>
   <si>
     <t>Permit to lock gear on the engine</t>
+  </si>
+  <si>
+    <t>Center bolt to lock the clutch inside the engine</t>
+  </si>
+  <si>
+    <t>Bolt M12</t>
+  </si>
+  <si>
+    <t>Bolt M6</t>
+  </si>
+  <si>
+    <t>To contraint the clutch mecanism</t>
+  </si>
+  <si>
+    <t>To lock the top of the thermostat on the thermostat</t>
   </si>
 </sst>
 </file>
@@ -929,22 +944,22 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +983,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -983,7 +998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1005,7 +1020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1025,7 +1040,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1045,7 +1060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1065,7 +1080,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1087,7 +1102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1109,7 +1124,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1131,7 +1146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1153,7 +1168,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1175,7 +1190,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1197,7 +1212,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1219,7 +1234,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1239,7 +1254,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1261,7 +1276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1281,7 +1296,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1315,7 +1330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -1345,25 +1360,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>60</v>
@@ -1419,7 +1434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1437,7 +1452,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1455,7 +1470,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1473,7 +1488,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1491,7 +1506,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1509,7 +1524,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1527,7 +1542,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1543,7 +1558,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1559,7 +1574,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1575,7 +1590,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1591,7 +1606,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1607,7 +1622,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1623,7 +1638,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1641,7 +1656,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1659,7 +1674,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1677,7 +1692,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1695,7 +1710,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1713,7 +1728,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1731,7 +1746,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1747,7 +1762,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1765,7 +1780,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1783,7 +1798,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>69</v>
@@ -1799,7 +1814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1817,7 +1832,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1833,7 +1848,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>25</v>
@@ -1849,7 +1864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1867,7 +1882,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1883,7 +1898,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1899,7 +1914,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1917,7 +1932,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>89</v>
@@ -1933,7 +1948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1951,7 +1966,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1967,7 +1982,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1985,7 +2000,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2003,7 +2018,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
         <v>81</v>
@@ -2019,7 +2034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2037,7 +2052,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2053,7 +2068,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2071,7 +2086,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
         <v>84</v>
@@ -2087,7 +2102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2103,7 +2118,7 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2117,7 +2132,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
         <v>85</v>
@@ -2133,7 +2148,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2149,7 +2164,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2163,7 +2178,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
         <v>23</v>
@@ -2179,7 +2194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2195,7 +2210,7 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2206,6 +2221,92 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="8">
+        <v>6</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="8">
+        <v>2</v>
+      </c>
+      <c r="H55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2221,18 +2322,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2258,7 +2359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>67</v>
       </c>
@@ -2272,7 +2373,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>60</v>
@@ -2288,7 +2389,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F0C91-63C6-483B-B9AC-8035D7607F69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96563AA6-542B-45E3-B636-520309803FDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="135">
   <si>
     <t>System</t>
   </si>
@@ -287,15 +287,9 @@
     <t>Welding</t>
   </si>
   <si>
-    <t>Welded to join plate</t>
-  </si>
-  <si>
     <t>Sheet 8mm</t>
   </si>
   <si>
-    <t>Welded to Oil sump shell</t>
-  </si>
-  <si>
     <t>Hand finish</t>
   </si>
   <si>
@@ -347,33 +341,12 @@
     <t>Fastener install</t>
   </si>
   <si>
-    <t>Bolt grade 8,8 M10</t>
-  </si>
-  <si>
-    <t>Bolt grade 8,8 M8</t>
-  </si>
-  <si>
-    <t>Bolt grade 8,8 M4</t>
-  </si>
-  <si>
-    <t>Washer M10</t>
-  </si>
-  <si>
-    <t>Washer M8</t>
-  </si>
-  <si>
-    <t>Washer M4</t>
-  </si>
-  <si>
     <t>Water jet cut</t>
   </si>
   <si>
     <t>Machining (CNC)</t>
   </si>
   <si>
-    <t>Nut grade 8,8 M10</t>
-  </si>
-  <si>
     <t>Assemble</t>
   </si>
   <si>
@@ -417,6 +390,78 @@
   </si>
   <si>
     <t>To lock the top of the thermostat on the thermostat</t>
+  </si>
+  <si>
+    <t>Anti planning plate weld to oil sump shell</t>
+  </si>
+  <si>
+    <t>Oil sump shell to joint plate</t>
+  </si>
+  <si>
+    <t>Drain outlet to oil sump shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untighten </t>
+  </si>
+  <si>
+    <t>Remove the stock clutch</t>
+  </si>
+  <si>
+    <t>Remove the oldest oil pressure sensor</t>
+  </si>
+  <si>
+    <t>Lock rthe slipper clutch</t>
+  </si>
+  <si>
+    <t>Assemble by hand</t>
+  </si>
+  <si>
+    <t>Put PAIR plate on the engine</t>
+  </si>
+  <si>
+    <t>PAIR plate bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washer </t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>Egine mount</t>
+  </si>
+  <si>
+    <t>Engine mount</t>
+  </si>
+  <si>
+    <t>Oil sump assembly</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>Close the drain outlet</t>
+  </si>
+  <si>
+    <t>Machining setup, install and remove</t>
+  </si>
+  <si>
+    <t>Machining setup, change</t>
+  </si>
+  <si>
+    <t>Laser cut setup, install and remove</t>
+  </si>
+  <si>
+    <t>Bending setup, install and remove</t>
   </si>
 </sst>
 </file>
@@ -624,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -659,6 +704,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,22 +995,22 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:G7"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1034,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1017,10 +1068,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1037,10 +1088,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1057,10 +1108,10 @@
         <v>10</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1077,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1099,10 +1150,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1121,10 +1172,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1143,10 +1194,10 @@
         <v>31</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1165,10 +1216,10 @@
         <v>32</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1187,10 +1238,10 @@
         <v>33</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1209,10 +1260,10 @@
         <v>38</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1231,10 +1282,10 @@
         <v>39</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1251,10 +1302,10 @@
         <v>40</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1273,10 +1324,10 @@
         <v>43</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1293,10 +1344,10 @@
         <v>44</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1311,7 +1362,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1330,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -1360,25 +1411,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -1418,7 +1469,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>60</v>
@@ -1434,7 +1485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1442,17 +1493,17 @@
         <v>64</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="8">
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1460,17 +1511,17 @@
         <v>64</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1478,17 +1529,17 @@
         <v>64</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="8">
         <v>8</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1496,17 +1547,17 @@
         <v>64</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1514,17 +1565,17 @@
         <v>64</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" s="8">
         <v>2</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1532,17 +1583,17 @@
         <v>64</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1550,15 +1601,17 @@
         <v>64</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G10" s="8">
         <v>2</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1566,15 +1619,17 @@
         <v>64</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="G11" s="8">
         <v>4</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1582,15 +1637,17 @@
         <v>64</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="G12" s="8">
         <v>8</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1598,101 +1655,91 @@
         <v>64</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="G13" s="8">
         <v>4</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8">
-        <v>15</v>
-      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="G15" s="8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>63</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G18" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1700,35 +1747,27 @@
         <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1736,17 +1775,17 @@
         <v>63</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1754,33 +1793,27 @@
         <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="G22" s="8">
         <v>1</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1788,308 +1821,308 @@
         <v>63</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G26" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>72</v>
+      <c r="E27" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="G29" s="8">
         <v>1</v>
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="8"/>
+      <c r="E30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="G30" s="8">
         <v>1</v>
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="8"/>
+      <c r="E31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G31" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>75</v>
+      <c r="E32" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="8">
-        <v>2</v>
-      </c>
+      <c r="G35" s="8"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="G36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>79</v>
+      <c r="E37" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="9">
+        <v>112</v>
+      </c>
+      <c r="G37" s="8">
         <v>1</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="G39" s="8">
         <v>1</v>
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="8"/>
+      <c r="E40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="G40" s="8">
         <v>1</v>
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>75</v>
+      <c r="E41" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="G41" s="8">
         <v>1</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>21</v>
@@ -2099,10 +2132,10 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2110,15 +2143,17 @@
         <v>61</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G43" s="8">
         <v>1</v>
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2126,45 +2161,50 @@
         <v>63</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
       <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8">
         <v>1</v>
       </c>
       <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2172,16 +2212,19 @@
         <v>63</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
       <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>21</v>
@@ -2191,10 +2234,11 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2202,111 +2246,716 @@
         <v>61</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G49" s="8">
         <v>1</v>
       </c>
       <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>115</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F52" s="8"/>
       <c r="G52" s="8">
         <v>1</v>
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>118</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F53" s="8"/>
       <c r="G53" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="8">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8">
+        <v>1</v>
+      </c>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8">
+        <v>1</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8">
+        <v>1</v>
+      </c>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8">
+        <v>1</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8">
+        <v>1</v>
+      </c>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8">
+        <v>1</v>
+      </c>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8">
+        <v>1</v>
+      </c>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8">
+        <v>1</v>
+      </c>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8">
+        <v>1</v>
+      </c>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8">
+        <v>1</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="8">
+      <c r="E89" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G89" s="8">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G90" s="8">
+        <v>6</v>
+      </c>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G92" s="8">
         <v>2</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H92" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2322,18 +2971,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2359,7 +3008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>67</v>
       </c>
@@ -2373,7 +3022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>60</v>
@@ -2389,7 +3038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2397,7 +3046,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>62</v>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96563AA6-542B-45E3-B636-520309803FDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B2130-5C4D-4CBA-9A28-AE7EA38A4270}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="192">
   <si>
     <t>System</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>To be completed</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
@@ -290,12 +287,6 @@
     <t>Sheet 8mm</t>
   </si>
   <si>
-    <t>Hand finish</t>
-  </si>
-  <si>
-    <t>Reduce 8mm to 2,5mm</t>
-  </si>
-  <si>
     <t>Anti planning plate</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>Steel 30NCD6</t>
   </si>
   <si>
-    <t xml:space="preserve">Front engine mount </t>
-  </si>
-  <si>
     <t>Rear engine mount</t>
   </si>
   <si>
@@ -332,9 +320,6 @@
     <t>Aluminium 2017A</t>
   </si>
   <si>
-    <t>Install Tie wrap</t>
-  </si>
-  <si>
     <t>Tighten bolt</t>
   </si>
   <si>
@@ -404,15 +389,9 @@
     <t xml:space="preserve">Untighten </t>
   </si>
   <si>
-    <t>Remove the stock clutch</t>
-  </si>
-  <si>
     <t>Remove the oldest oil pressure sensor</t>
   </si>
   <si>
-    <t>Lock rthe slipper clutch</t>
-  </si>
-  <si>
     <t>Assemble by hand</t>
   </si>
   <si>
@@ -422,12 +401,6 @@
     <t>PAIR plate bolt</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nut </t>
-  </si>
-  <si>
     <t xml:space="preserve">Washer </t>
   </si>
   <si>
@@ -462,13 +435,211 @@
   </si>
   <si>
     <t>Bending setup, install and remove</t>
+  </si>
+  <si>
+    <t>Remove clutch carter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove clutch </t>
+  </si>
+  <si>
+    <t>Lock the slipper clutch</t>
+  </si>
+  <si>
+    <t>Put the clutch carter</t>
+  </si>
+  <si>
+    <t>Carter screws</t>
+  </si>
+  <si>
+    <t>Lock the carter on the engine</t>
+  </si>
+  <si>
+    <t>New Adaptator oil pressure</t>
+  </si>
+  <si>
+    <t>Put the engine on the frame</t>
+  </si>
+  <si>
+    <t>Untighten (Ratchet, Wrench, Screwdriver)</t>
+  </si>
+  <si>
+    <t>Remove the older oil shell</t>
+  </si>
+  <si>
+    <t>Draining</t>
+  </si>
+  <si>
+    <t>Modification of the oil stainer</t>
+  </si>
+  <si>
+    <t>Oil pan screws</t>
+  </si>
+  <si>
+    <t>Lock the oil pan on the engine</t>
+  </si>
+  <si>
+    <t>Put the new oil pan</t>
+  </si>
+  <si>
+    <t>Engine sealant paste</t>
+  </si>
+  <si>
+    <t>For clutch carter and oil pan</t>
+  </si>
+  <si>
+    <t>Machinig (convenvtionnal)</t>
+  </si>
+  <si>
+    <t>Fill with liquid, grease</t>
+  </si>
+  <si>
+    <t>Assemble by handby hand(&gt;10kg)</t>
+  </si>
+  <si>
+    <t>Assemble by hande</t>
+  </si>
+  <si>
+    <t>Oil filter</t>
+  </si>
+  <si>
+    <t>Remove the older thermostat of the engine</t>
+  </si>
+  <si>
+    <t>Put the new thermostat</t>
+  </si>
+  <si>
+    <t>Thermostat screws</t>
+  </si>
+  <si>
+    <t>Lock the thermostat on the engine</t>
+  </si>
+  <si>
+    <t>Overflow Bottle, Steel Oil Can</t>
+  </si>
+  <si>
+    <t>Painting cans</t>
+  </si>
+  <si>
+    <t>Hose, Low Pressure, Stainless Steel Braided Outer</t>
+  </si>
+  <si>
+    <t>Lines from Engine's top and Expansion tank to overflow bottles</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Black bottle paint</t>
+  </si>
+  <si>
+    <t>Carbon Fiber, 1 Ply (kg)</t>
+  </si>
+  <si>
+    <t>For carbon clamp</t>
+  </si>
+  <si>
+    <t>Cut (scissors, knife)</t>
+  </si>
+  <si>
+    <t>Carbon fiber strips cut</t>
+  </si>
+  <si>
+    <t>Lamination, Manual</t>
+  </si>
+  <si>
+    <t>Cure, Oven</t>
+  </si>
+  <si>
+    <t>Drilled holes &lt; 25.4 mm dia.</t>
+  </si>
+  <si>
+    <t>Drill the carbon fiber strips, diam 8</t>
+  </si>
+  <si>
+    <t>Assemble, 1kg, Loose</t>
+  </si>
+  <si>
+    <t>Bend carbon fiber strips around one can</t>
+  </si>
+  <si>
+    <t>Ratchet &lt;= 25.4 mm</t>
+  </si>
+  <si>
+    <t>Tighten the carbon fiber strips around one can</t>
+  </si>
+  <si>
+    <t>Reaction Tool &lt;= 25.4 mm</t>
+  </si>
+  <si>
+    <t>Bottles drilling for hoses</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Loose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixing the Velcro to the other can </t>
+  </si>
+  <si>
+    <t>Fixing the Velcro to the fuel tank side</t>
+  </si>
+  <si>
+    <t>Hoses cut</t>
+  </si>
+  <si>
+    <t>Screwdriver &gt; 1 Turn</t>
+  </si>
+  <si>
+    <t>Clamps installation on the frame</t>
+  </si>
+  <si>
+    <t>Assemble, 1kg, Interference</t>
+  </si>
+  <si>
+    <t>Hose mounting on Bottles, Engine and Expansion tank</t>
+  </si>
+  <si>
+    <t>Hose Clamp, Single Wire</t>
+  </si>
+  <si>
+    <t>Engine and Expansion tank clamp</t>
+  </si>
+  <si>
+    <t>Steel Loop Straps, Rubber-Cushioned</t>
+  </si>
+  <si>
+    <t>Attach on the bottom frame pipe</t>
+  </si>
+  <si>
+    <t>Bolt, Aluminum</t>
+  </si>
+  <si>
+    <t>100 mm M6 Bolt</t>
+  </si>
+  <si>
+    <t>Nut, Grade 8.8 (SAE 5)</t>
+  </si>
+  <si>
+    <t>M6 Bolt</t>
+  </si>
+  <si>
+    <t>Washer, Grade 8.8 (SAE 5)</t>
+  </si>
+  <si>
+    <t>M4 washers to tighten the collar around the frame</t>
+  </si>
+  <si>
+    <t>Hook and Loop, Hook Side (Velcro)</t>
+  </si>
+  <si>
+    <t>To attach one can to the fuel tank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +697,43 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -666,10 +874,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -693,16 +904,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -711,9 +913,31 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 13" xfId="1" xr:uid="{EF959905-9C06-44BE-92D9-CFB95575F198}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{287158AC-9EA6-4803-92ED-3AFB0E4003F7}"/>
+    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{94AC10C1-A4FF-4483-AEA3-177C5E3DCF08}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1067,8 +1291,8 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>80</v>
+      <c r="H3" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1087,8 +1311,8 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>80</v>
+      <c r="H4" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1107,8 +1331,8 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>80</v>
+      <c r="H5" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1127,8 +1351,8 @@
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>80</v>
+      <c r="H6" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1149,8 +1373,8 @@
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>80</v>
+      <c r="H7" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1171,8 +1395,8 @@
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>81</v>
+      <c r="H8" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1193,8 +1417,8 @@
       <c r="G9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>80</v>
+      <c r="H9" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1215,8 +1439,8 @@
       <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>81</v>
+      <c r="H10" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1237,8 +1461,8 @@
       <c r="G11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>81</v>
+      <c r="H11" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1259,8 +1483,8 @@
       <c r="G12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>81</v>
+      <c r="H12" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1272,7 +1496,7 @@
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="4">
@@ -1281,8 +1505,8 @@
       <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>80</v>
+      <c r="H13" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1294,15 +1518,15 @@
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="4">
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>80</v>
+      <c r="H14" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1323,8 +1547,8 @@
       <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>80</v>
+      <c r="H15" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1343,8 +1567,8 @@
       <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>80</v>
+      <c r="H16" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1411,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,7 +1647,7 @@
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
@@ -1457,7 +1681,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1482,78 +1706,70 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G4" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>62</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="8">
-        <v>8</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>62</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="G7" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -1562,16 +1778,16 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>122</v>
+        <v>62</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="G8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -1580,13 +1796,13 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1598,16 +1814,16 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1616,16 +1832,16 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>124</v>
+        <v>62</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G11" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -1634,183 +1850,199 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>123</v>
+        <v>62</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G12" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G13" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>118</v>
+        <v>62</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="D20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="D23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1818,13 +2050,13 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -1836,13 +2068,13 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G25" s="8">
         <v>1</v>
@@ -1854,13 +2086,13 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G26" s="8">
         <v>1</v>
@@ -1872,12 +2104,14 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="G27" s="8">
         <v>1</v>
       </c>
@@ -1887,28 +2121,28 @@
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="D28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1916,13 +2150,13 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="G30" s="8">
         <v>1</v>
@@ -1934,13 +2168,13 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="G31" s="8">
         <v>1</v>
@@ -1952,341 +2186,299 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G33" s="8">
         <v>1</v>
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="G34" s="8">
         <v>1</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>113</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="8">
         <v>1</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="G38" s="8">
         <v>1</v>
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G40" s="8">
         <v>1</v>
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="G41" s="8">
         <v>1</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="G43" s="8">
         <v>1</v>
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="8">
-        <v>1</v>
-      </c>
+      <c r="G44" s="8"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="8">
-        <v>1</v>
-      </c>
+      <c r="G45" s="8"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="8"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="G47" s="8">
         <v>1</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="8">
-        <v>1</v>
-      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="8">
-        <v>1</v>
-      </c>
+      <c r="G50" s="8"/>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="8">
-        <v>1</v>
-      </c>
+      <c r="G51" s="8"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2297,11 +2489,13 @@
         <v>63</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="G52" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -2313,11 +2507,13 @@
         <v>63</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G53" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -2329,11 +2525,13 @@
         <v>63</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G54" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -2345,11 +2543,13 @@
         <v>63</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="G55" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -2360,206 +2560,208 @@
       <c r="D56" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="8"/>
+      <c r="E56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="G56" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6" t="s">
-        <v>33</v>
-      </c>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="8">
-        <v>1</v>
-      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7"/>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="9">
+        <v>70</v>
+      </c>
+      <c r="G60" s="8">
         <v>1</v>
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="s">
-        <v>38</v>
-      </c>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F62" s="8"/>
       <c r="G62" s="8">
         <v>1</v>
       </c>
       <c r="H62" s="7"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8">
         <v>1</v>
       </c>
       <c r="H63" s="7"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8">
         <v>1</v>
       </c>
       <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8">
-        <v>1</v>
-      </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G66" s="8">
         <v>1</v>
       </c>
       <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8">
@@ -2567,15 +2769,15 @@
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8">
@@ -2583,15 +2785,15 @@
       </c>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8">
@@ -2599,15 +2801,15 @@
       </c>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8">
@@ -2615,15 +2817,15 @@
       </c>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>95</v>
+        <v>62</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8">
@@ -2631,15 +2833,15 @@
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>129</v>
+        <v>62</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8">
@@ -2647,7 +2849,7 @@
       </c>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
         <v>83</v>
@@ -2660,10 +2862,10 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2671,23 +2873,25 @@
         <v>61</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="G75" s="8">
         <v>1</v>
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8">
@@ -2695,15 +2899,15 @@
       </c>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8">
@@ -2711,15 +2915,15 @@
       </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8">
@@ -2727,15 +2931,15 @@
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>95</v>
+        <v>62</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8">
@@ -2743,47 +2947,49 @@
       </c>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8">
-        <v>1</v>
-      </c>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="6" t="s">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8">
@@ -2796,10 +3002,10 @@
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8">
@@ -2812,10 +3018,10 @@
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8">
@@ -2828,10 +3034,10 @@
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8">
@@ -2839,31 +3045,31 @@
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8">
-        <v>1</v>
-      </c>
-      <c r="H86" s="7"/>
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>129</v>
+        <v>61</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8">
@@ -2871,35 +3077,31 @@
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>106</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" s="8"/>
       <c r="G89" s="8">
         <v>1</v>
       </c>
@@ -2910,52 +3112,454 @@
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>109</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="8"/>
       <c r="G90" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6" t="s">
-        <v>12</v>
-      </c>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8">
+        <v>1</v>
+      </c>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" s="8"/>
       <c r="G92" s="8">
+        <v>1</v>
+      </c>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8">
+        <v>1</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8">
+        <v>1</v>
+      </c>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8">
+        <v>1</v>
+      </c>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8">
+        <v>1</v>
+      </c>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8">
+        <v>1</v>
+      </c>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8">
+        <v>1</v>
+      </c>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8">
+        <v>1</v>
+      </c>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8">
+        <v>1</v>
+      </c>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8">
+        <v>1</v>
+      </c>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8">
+        <v>1</v>
+      </c>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8">
+        <v>1</v>
+      </c>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8">
+        <v>1</v>
+      </c>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8">
+        <v>1</v>
+      </c>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8">
+        <v>1</v>
+      </c>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8">
+        <v>1</v>
+      </c>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8">
+        <v>1</v>
+      </c>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8">
+        <v>1</v>
+      </c>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8">
+        <v>1</v>
+      </c>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G114" s="8">
+        <v>1</v>
+      </c>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G115" s="8">
+        <v>6</v>
+      </c>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G117" s="8">
         <v>2</v>
       </c>
-      <c r="H92" s="7"/>
+      <c r="H117" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2965,10 +3569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2976,8 +3580,8 @@
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
@@ -3010,7 +3614,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3035,26 +3639,446 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="8">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7"/>
+      <c r="E23" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B2130-5C4D-4CBA-9A28-AE7EA38A4270}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0100" sheetId="2" r:id="rId2"/>
     <sheet name="EN_A0800" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="191">
   <si>
     <t>System</t>
   </si>
@@ -128,9 +127,6 @@
     <t>Permit to close the PAIR sensors</t>
   </si>
   <si>
-    <t>Adaptator oil pressure</t>
-  </si>
-  <si>
     <t>Permit to plug our oil pressure sensors</t>
   </si>
   <si>
@@ -215,9 +211,6 @@
     <t>From PC37</t>
   </si>
   <si>
-    <t>Attach the oil sump shell to the engine</t>
-  </si>
-  <si>
     <t>Limit oil displacement in the oil sump</t>
   </si>
   <si>
@@ -281,12 +274,6 @@
     <t>Bending</t>
   </si>
   <si>
-    <t>Welding</t>
-  </si>
-  <si>
-    <t>Sheet 8mm</t>
-  </si>
-  <si>
     <t>Anti planning plate</t>
   </si>
   <si>
@@ -302,15 +289,9 @@
     <t>Shifter Gear</t>
   </si>
   <si>
-    <t>Steel 30NCD6</t>
-  </si>
-  <si>
     <t>Rear engine mount</t>
   </si>
   <si>
-    <t>Joint plate</t>
-  </si>
-  <si>
     <t>Joint plate on the engine</t>
   </si>
   <si>
@@ -326,60 +307,15 @@
     <t>Fastener install</t>
   </si>
   <si>
-    <t>Water jet cut</t>
-  </si>
-  <si>
     <t>Machining (CNC)</t>
   </si>
   <si>
     <t>Assemble</t>
   </si>
   <si>
-    <t>Put the shifter axis inside the engine</t>
-  </si>
-  <si>
-    <t>Instal the wet slipper clutch</t>
-  </si>
-  <si>
-    <t>Instal the clutch discs</t>
-  </si>
-  <si>
-    <t>Instal the circlips to lock the axis on the engine</t>
-  </si>
-  <si>
-    <t>Circlip</t>
-  </si>
-  <si>
-    <t>Permit to lock the shifter axis inside the engine</t>
-  </si>
-  <si>
-    <t>Bolt grade 8.8 M8x40</t>
-  </si>
-  <si>
-    <t>Bolt between shifter gear and the engine mecanism</t>
-  </si>
-  <si>
     <t>Permit to lock gear on the engine</t>
   </si>
   <si>
-    <t>Center bolt to lock the clutch inside the engine</t>
-  </si>
-  <si>
-    <t>Bolt M12</t>
-  </si>
-  <si>
-    <t>Bolt M6</t>
-  </si>
-  <si>
-    <t>To contraint the clutch mecanism</t>
-  </si>
-  <si>
-    <t>To lock the top of the thermostat on the thermostat</t>
-  </si>
-  <si>
-    <t>Anti planning plate weld to oil sump shell</t>
-  </si>
-  <si>
     <t>Oil sump shell to joint plate</t>
   </si>
   <si>
@@ -389,9 +325,6 @@
     <t xml:space="preserve">Untighten </t>
   </si>
   <si>
-    <t>Remove the oldest oil pressure sensor</t>
-  </si>
-  <si>
     <t>Assemble by hand</t>
   </si>
   <si>
@@ -401,21 +334,9 @@
     <t>PAIR plate bolt</t>
   </si>
   <si>
-    <t xml:space="preserve">Washer </t>
-  </si>
-  <si>
-    <t>Washer</t>
-  </si>
-  <si>
     <t>Egine mount</t>
   </si>
   <si>
-    <t>Engine mount</t>
-  </si>
-  <si>
-    <t>Oil sump assembly</t>
-  </si>
-  <si>
     <t>Programming</t>
   </si>
   <si>
@@ -434,9 +355,6 @@
     <t>Laser cut setup, install and remove</t>
   </si>
   <si>
-    <t>Bending setup, install and remove</t>
-  </si>
-  <si>
     <t>Remove clutch carter</t>
   </si>
   <si>
@@ -446,72 +364,24 @@
     <t>Lock the slipper clutch</t>
   </si>
   <si>
-    <t>Put the clutch carter</t>
-  </si>
-  <si>
-    <t>Carter screws</t>
-  </si>
-  <si>
-    <t>Lock the carter on the engine</t>
-  </si>
-  <si>
     <t>New Adaptator oil pressure</t>
   </si>
   <si>
     <t>Put the engine on the frame</t>
   </si>
   <si>
-    <t>Untighten (Ratchet, Wrench, Screwdriver)</t>
-  </si>
-  <si>
     <t>Remove the older oil shell</t>
   </si>
   <si>
-    <t>Draining</t>
-  </si>
-  <si>
-    <t>Modification of the oil stainer</t>
-  </si>
-  <si>
-    <t>Oil pan screws</t>
-  </si>
-  <si>
     <t>Lock the oil pan on the engine</t>
   </si>
   <si>
-    <t>Put the new oil pan</t>
-  </si>
-  <si>
-    <t>Engine sealant paste</t>
-  </si>
-  <si>
     <t>For clutch carter and oil pan</t>
   </si>
   <si>
-    <t>Machinig (convenvtionnal)</t>
-  </si>
-  <si>
-    <t>Fill with liquid, grease</t>
-  </si>
-  <si>
-    <t>Assemble by handby hand(&gt;10kg)</t>
-  </si>
-  <si>
-    <t>Assemble by hande</t>
-  </si>
-  <si>
     <t>Oil filter</t>
   </si>
   <si>
-    <t>Remove the older thermostat of the engine</t>
-  </si>
-  <si>
-    <t>Put the new thermostat</t>
-  </si>
-  <si>
-    <t>Thermostat screws</t>
-  </si>
-  <si>
     <t>Lock the thermostat on the engine</t>
   </si>
   <si>
@@ -633,13 +503,139 @@
   </si>
   <si>
     <t>To attach one can to the fuel tank</t>
+  </si>
+  <si>
+    <t>Washer, steel stainless</t>
+  </si>
+  <si>
+    <t>Engine Sealant Paste</t>
+  </si>
+  <si>
+    <t>Assemble by hand (&gt;10kg)</t>
+  </si>
+  <si>
+    <t>Seal, O-ring, Elastomer</t>
+  </si>
+  <si>
+    <t>Sold with the engin, ensure sealing</t>
+  </si>
+  <si>
+    <t>Tighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Untighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Remove older pair plate</t>
+  </si>
+  <si>
+    <t>Welding (Aluminium)</t>
+  </si>
+  <si>
+    <t>Clutch engine casing with sealing</t>
+  </si>
+  <si>
+    <t>Engine casing screws</t>
+  </si>
+  <si>
+    <t>Remove older oil pressure sensor</t>
+  </si>
+  <si>
+    <t>Engine oil</t>
+  </si>
+  <si>
+    <t>Draining, modif. Oil strainer, new pan</t>
+  </si>
+  <si>
+    <t>Fill with liquids, grease, …</t>
+  </si>
+  <si>
+    <t>Retaining ring, external</t>
+  </si>
+  <si>
+    <t>Fitting, weld-in, male, aluminium</t>
+  </si>
+  <si>
+    <t>Fitting, L.P, female plug, aluminium</t>
+  </si>
+  <si>
+    <t>To drain engine, weld with oil sump</t>
+  </si>
+  <si>
+    <t>Plug for draining outlet</t>
+  </si>
+  <si>
+    <t>Draining outlet, male fitting weld-in</t>
+  </si>
+  <si>
+    <t>Attach oil sump shell to engine,</t>
+  </si>
+  <si>
+    <t>Adaptater oil pressure</t>
+  </si>
+  <si>
+    <t>To lock shifter axis inside the engine</t>
+  </si>
+  <si>
+    <t>Instal wet slipper clutch, clutch discs</t>
+  </si>
+  <si>
+    <t>Remove older thermostat of engine</t>
+  </si>
+  <si>
+    <t>Put new thermostat</t>
+  </si>
+  <si>
+    <t>Circlip to lock the axis on engine</t>
+  </si>
+  <si>
+    <t>Remove older shifter axis, put new one</t>
+  </si>
+  <si>
+    <t>Anti planning plate and oil sump shell</t>
+  </si>
+  <si>
+    <t>Bolt grade 8.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M8x40, Btw shifter gear and engine</t>
+  </si>
+  <si>
+    <t>M6, Top of thermostat and thermostat</t>
+  </si>
+  <si>
+    <t>M12, Center bolt for clutch system</t>
+  </si>
+  <si>
+    <t>M6, To contraint the clutch mecanism</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Turning + milling</t>
+  </si>
+  <si>
+    <t>Turning</t>
+  </si>
+  <si>
+    <t>Turning, phase 1</t>
+  </si>
+  <si>
+    <t>Turning, phase 2</t>
+  </si>
+  <si>
+    <t>Milling</t>
+  </si>
+  <si>
+    <t>Steel 25CD4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,14 +681,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -876,9 +864,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -901,16 +889,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,25 +920,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 13" xfId="1" xr:uid="{EF959905-9C06-44BE-92D9-CFB95575F198}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{287158AC-9EA6-4803-92ED-3AFB0E4003F7}"/>
-    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{94AC10C1-A4FF-4483-AEA3-177C5E3DCF08}"/>
+    <cellStyle name="Normal 13" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal_Sheet1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1214,21 +1202,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:H23"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -1270,7 +1258,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1283,7 +1271,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1291,15 +1279,15 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>77</v>
+      <c r="H3" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
@@ -1311,15 +1299,15 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>77</v>
+      <c r="H4" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -1331,15 +1319,15 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>77</v>
+      <c r="H5" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -1351,21 +1339,21 @@
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>77</v>
+      <c r="H6" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1373,8 +1361,8 @@
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>77</v>
+      <c r="H7" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1395,167 +1383,167 @@
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>78</v>
+      <c r="H8" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>77</v>
+        <v>30</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>50</v>
+      <c r="E13" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="F13" s="4">
         <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="4">
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>77</v>
+        <v>39</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>77</v>
+        <v>42</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>21</v>
@@ -1565,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>77</v>
+        <v>43</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1583,20 +1571,20 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1609,13 +1597,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1634,21 +1622,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:H118"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5546875" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
@@ -1658,16 +1646,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -1681,7 +1669,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1690,13 +1678,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>21</v>
@@ -1706,903 +1694,909 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7"/>
+      <c r="D4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7"/>
+      <c r="D10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="D12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="D13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="D14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
+      <c r="D15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="D16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
+      <c r="D17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
+      <c r="D18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7"/>
+      <c r="D20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7"/>
+      <c r="D21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7"/>
+      <c r="D23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7"/>
+      <c r="D24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7"/>
+      <c r="D25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7"/>
+      <c r="D26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7"/>
+      <c r="D27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
+      <c r="D29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7"/>
+      <c r="D30" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7"/>
+      <c r="D31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7"/>
+      <c r="D32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="8">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7"/>
+      <c r="D34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="8">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7"/>
+      <c r="D36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
+      <c r="D37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="8">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7"/>
+      <c r="D38" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="8">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G41" s="8">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7"/>
+      <c r="D41" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="8">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7"/>
+      <c r="D42" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="8">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="7"/>
+      <c r="D44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="17">
+        <v>4</v>
+      </c>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7"/>
+      <c r="D45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="17">
+        <v>8</v>
+      </c>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="7"/>
+      <c r="D46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="17">
+        <v>4</v>
+      </c>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="8">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7"/>
+      <c r="D47" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="17">
+        <v>2</v>
+      </c>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G48" s="8">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7"/>
+      <c r="D48" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7"/>
+      <c r="D49" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="7"/>
+      <c r="D50" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="7"/>
+      <c r="D51" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="8">
-        <v>4</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" s="8">
-        <v>8</v>
-      </c>
-      <c r="H53" s="7"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" s="8">
+        <v>59</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="17">
         <v>4</v>
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" s="8">
-        <v>2</v>
-      </c>
-      <c r="H55" s="7"/>
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="8">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G56" s="17">
+        <v>6</v>
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="8">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7"/>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="D58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" s="17">
+        <v>2</v>
+      </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>21</v>
@@ -2620,15 +2614,15 @@
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="8">
+        <v>59</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="17">
         <v>1</v>
       </c>
       <c r="H60" s="7"/>
@@ -2638,73 +2632,73 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8">
+        <v>60</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17">
         <v>1</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="10"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8">
+        <v>60</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17">
         <v>1</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="10"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8">
+        <v>60</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17">
         <v>1</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="10"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8">
+        <v>60</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17">
         <v>1</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="10"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>21</v>
@@ -2714,41 +2708,39 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="10"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" s="8">
+        <v>59</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17">
         <v>1</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8">
+        <v>60</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="17">
         <v>1</v>
       </c>
       <c r="H67" s="7"/>
@@ -2758,13 +2750,15 @@
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8">
+        <v>60</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="17">
         <v>1</v>
       </c>
       <c r="H68" s="7"/>
@@ -2774,13 +2768,15 @@
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8">
+        <v>60</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="17">
         <v>1</v>
       </c>
       <c r="H69" s="7"/>
@@ -2790,13 +2786,15 @@
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8">
+        <v>60</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G70" s="17">
         <v>1</v>
       </c>
       <c r="H70" s="7"/>
@@ -2806,13 +2804,15 @@
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8">
+        <v>60</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G71" s="17">
         <v>1</v>
       </c>
       <c r="H71" s="7"/>
@@ -2822,13 +2822,15 @@
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8">
+        <v>60</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G72" s="17">
         <v>1</v>
       </c>
       <c r="H72" s="7"/>
@@ -2838,79 +2840,83 @@
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8">
+        <v>60</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G73" s="17">
         <v>1</v>
       </c>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="6" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17">
+        <v>1</v>
+      </c>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75" s="8">
-        <v>1</v>
-      </c>
-      <c r="H75" s="7"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8">
+        <v>59</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="17">
         <v>1</v>
       </c>
       <c r="H76" s="7"/>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8">
+        <v>60</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17">
         <v>1</v>
       </c>
       <c r="H77" s="7"/>
@@ -2920,13 +2926,13 @@
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8">
+        <v>60</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17">
         <v>1</v>
       </c>
       <c r="H78" s="7"/>
@@ -2936,79 +2942,79 @@
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8">
+        <v>60</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17">
         <v>1</v>
       </c>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6" t="s">
-        <v>38</v>
-      </c>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17">
+        <v>1</v>
+      </c>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F81" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17">
+        <v>1</v>
+      </c>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="8">
-        <v>1</v>
-      </c>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8">
-        <v>1</v>
-      </c>
-      <c r="H82" s="7"/>
+      <c r="C82" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8">
+        <v>59</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="17">
         <v>1</v>
       </c>
       <c r="H83" s="7"/>
@@ -3018,13 +3024,13 @@
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8">
+        <v>60</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17">
         <v>1</v>
       </c>
       <c r="H84" s="7"/>
@@ -3034,31 +3040,33 @@
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8">
+        <v>60</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17">
         <v>1</v>
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6" t="s">
-        <v>43</v>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3066,43 +3074,45 @@
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8">
+        <v>60</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17">
         <v>1</v>
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="7"/>
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8">
+        <v>59</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17">
         <v>1</v>
       </c>
       <c r="H89" s="7"/>
@@ -3112,13 +3122,15 @@
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8">
+        <v>60</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G90" s="17">
         <v>1</v>
       </c>
       <c r="H90" s="7"/>
@@ -3128,13 +3140,15 @@
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8">
+        <v>60</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G91" s="17">
         <v>1</v>
       </c>
       <c r="H91" s="7"/>
@@ -3144,13 +3158,15 @@
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8">
+        <v>60</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G92" s="17">
         <v>1</v>
       </c>
       <c r="H92" s="7"/>
@@ -3160,13 +3176,15 @@
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8">
+        <v>60</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G93" s="17">
         <v>1</v>
       </c>
       <c r="H93" s="7"/>
@@ -3176,61 +3194,63 @@
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8">
+        <v>60</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G94" s="17">
         <v>1</v>
       </c>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="6" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17">
+        <v>1</v>
+      </c>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8">
-        <v>1</v>
-      </c>
-      <c r="H96" s="7"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8">
+        <v>59</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17">
         <v>1</v>
       </c>
       <c r="H97" s="7"/>
@@ -3240,13 +3260,15 @@
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8">
+        <v>60</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G98" s="17">
         <v>1</v>
       </c>
       <c r="H98" s="7"/>
@@ -3256,13 +3278,15 @@
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8">
+        <v>60</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G99" s="17">
         <v>1</v>
       </c>
       <c r="H99" s="7"/>
@@ -3272,13 +3296,15 @@
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8">
+        <v>60</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G100" s="17">
         <v>1</v>
       </c>
       <c r="H100" s="7"/>
@@ -3288,13 +3314,15 @@
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8">
+        <v>60</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G101" s="17">
         <v>1</v>
       </c>
       <c r="H101" s="7"/>
@@ -3304,13 +3332,15 @@
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8">
+        <v>60</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G102" s="17">
         <v>1</v>
       </c>
       <c r="H102" s="7"/>
@@ -3320,246 +3350,52 @@
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8">
+        <v>60</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G103" s="17">
         <v>1</v>
       </c>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6" t="s">
-        <v>44</v>
-      </c>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G104" s="17">
+        <v>1</v>
+      </c>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8">
+        <v>60</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17">
         <v>1</v>
       </c>
       <c r="H105" s="7"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8">
-        <v>1</v>
-      </c>
-      <c r="H106" s="7"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8">
-        <v>1</v>
-      </c>
-      <c r="H107" s="7"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8">
-        <v>1</v>
-      </c>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8">
-        <v>1</v>
-      </c>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8">
-        <v>1</v>
-      </c>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8">
-        <v>1</v>
-      </c>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8">
-        <v>1</v>
-      </c>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G114" s="8">
-        <v>1</v>
-      </c>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G115" s="8">
-        <v>6</v>
-      </c>
-      <c r="H115" s="7"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G117" s="8">
-        <v>2</v>
-      </c>
-      <c r="H117" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3568,14 +3404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="3" width="24.6640625" customWidth="1"/>
@@ -3591,16 +3427,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3614,7 +3450,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3623,13 +3459,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
@@ -3639,446 +3475,446 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="20">
-        <v>1</v>
-      </c>
-      <c r="H4" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="20">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="20">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="20">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="20">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="20">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="20">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="20">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="20">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="7" t="s">
+      <c r="E23" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="20">
-        <v>1</v>
-      </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="7" t="s">
+      <c r="E24" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="7" t="s">
+      <c r="E25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="20">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20">
-        <v>1</v>
-      </c>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1</v>
-      </c>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G24" s="20">
-        <v>1</v>
-      </c>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="20">
-        <v>1</v>
-      </c>
-      <c r="H26" s="20"/>
+      <c r="E26" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="20">
-        <v>1</v>
-      </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="20">
-        <v>1</v>
-      </c>
-      <c r="H28" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="190">
   <si>
     <t>System</t>
   </si>
@@ -613,22 +613,19 @@
     <t>x</t>
   </si>
   <si>
-    <t>Turning + milling</t>
-  </si>
-  <si>
     <t>Turning</t>
   </si>
   <si>
     <t>Turning, phase 1</t>
   </si>
   <si>
-    <t>Turning, phase 2</t>
-  </si>
-  <si>
-    <t>Milling</t>
-  </si>
-  <si>
     <t>Steel 25CD4</t>
+  </si>
+  <si>
+    <t>Turning, phase 2 + milling</t>
+  </si>
+  <si>
+    <t>Turning (+ milling)</t>
   </si>
 </sst>
 </file>
@@ -1623,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2738,7 +2735,7 @@
         <v>93</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G67" s="17">
         <v>1</v>
@@ -2756,7 +2753,7 @@
         <v>96</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G68" s="17">
         <v>1</v>
@@ -2774,7 +2771,7 @@
         <v>83</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
@@ -2792,7 +2789,7 @@
         <v>97</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G70" s="17">
         <v>1</v>
@@ -2825,85 +2822,81 @@
         <v>60</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>189</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F72" s="17"/>
       <c r="G72" s="17">
         <v>1</v>
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G73" s="17">
-        <v>1</v>
-      </c>
-      <c r="H73" s="7"/>
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="G74" s="17">
         <v>1</v>
       </c>
       <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I75" s="9"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>70</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F76" s="17"/>
       <c r="G76" s="17">
         <v>1</v>
       </c>
       <c r="H76" s="7"/>
-      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
@@ -2913,7 +2906,7 @@
         <v>60</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F77" s="17"/>
       <c r="G77" s="17">
@@ -2929,7 +2922,7 @@
         <v>60</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F78" s="17"/>
       <c r="G78" s="17">
@@ -2945,7 +2938,7 @@
         <v>60</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="17">
@@ -2953,67 +2946,67 @@
       </c>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17">
-        <v>1</v>
-      </c>
-      <c r="H80" s="7"/>
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F81" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="G81" s="17">
         <v>1</v>
       </c>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6" t="s">
-        <v>37</v>
-      </c>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>70</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F83" s="17"/>
       <c r="G83" s="17">
         <v>1</v>
       </c>
@@ -3027,13 +3020,15 @@
         <v>60</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17">
         <v>1</v>
       </c>
-      <c r="H84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
@@ -3043,7 +3038,7 @@
         <v>60</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="17">
@@ -3051,22 +3046,20 @@
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17">
-        <v>1</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>184</v>
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3074,10 +3067,10 @@
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="17">
@@ -3085,33 +3078,37 @@
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6" t="s">
-        <v>42</v>
-      </c>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G88" s="17">
+        <v>1</v>
+      </c>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F89" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="G89" s="17">
         <v>1</v>
       </c>
@@ -3124,11 +3121,11 @@
       <c r="D90" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="17" t="s">
-        <v>93</v>
+      <c r="E90" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G90" s="17">
         <v>1</v>
@@ -3146,7 +3143,7 @@
         <v>96</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G91" s="17">
         <v>1</v>
@@ -3164,7 +3161,7 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G92" s="17">
         <v>1</v>
@@ -3179,43 +3176,39 @@
         <v>60</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>189</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F93" s="17"/>
       <c r="G93" s="17">
         <v>1</v>
       </c>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G94" s="17">
-        <v>1</v>
-      </c>
-      <c r="H94" s="7"/>
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="17">
@@ -3223,33 +3216,37 @@
       </c>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6" t="s">
-        <v>43</v>
-      </c>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G96" s="17">
+        <v>1</v>
+      </c>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="G97" s="17">
         <v>1</v>
       </c>
@@ -3262,11 +3259,11 @@
       <c r="D98" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>93</v>
+      <c r="E98" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G98" s="17">
         <v>1</v>
@@ -3281,10 +3278,10 @@
         <v>60</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G99" s="17">
         <v>1</v>
@@ -3302,7 +3299,7 @@
         <v>83</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G100" s="17">
         <v>1</v>
@@ -3317,85 +3314,13 @@
         <v>60</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>186</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F101" s="17"/>
       <c r="G101" s="17">
         <v>1</v>
       </c>
       <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G102" s="17">
-        <v>1</v>
-      </c>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G103" s="17">
-        <v>1</v>
-      </c>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G104" s="17">
-        <v>1</v>
-      </c>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17">
-        <v>1</v>
-      </c>
-      <c r="H105" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0100_ENA0800.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0100" sheetId="2" r:id="rId2"/>
     <sheet name="EN_A0800" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="166">
   <si>
     <t>System</t>
   </si>
@@ -385,126 +385,18 @@
     <t>Lock the thermostat on the engine</t>
   </si>
   <si>
-    <t>Overflow Bottle, Steel Oil Can</t>
-  </si>
-  <si>
-    <t>Painting cans</t>
-  </si>
-  <si>
-    <t>Hose, Low Pressure, Stainless Steel Braided Outer</t>
-  </si>
-  <si>
-    <t>Lines from Engine's top and Expansion tank to overflow bottles</t>
-  </si>
-  <si>
     <t>Paint</t>
   </si>
   <si>
-    <t>Black bottle paint</t>
-  </si>
-  <si>
-    <t>Carbon Fiber, 1 Ply (kg)</t>
-  </si>
-  <si>
-    <t>For carbon clamp</t>
-  </si>
-  <si>
-    <t>Cut (scissors, knife)</t>
-  </si>
-  <si>
-    <t>Carbon fiber strips cut</t>
-  </si>
-  <si>
-    <t>Lamination, Manual</t>
-  </si>
-  <si>
-    <t>Cure, Oven</t>
-  </si>
-  <si>
-    <t>Drilled holes &lt; 25.4 mm dia.</t>
-  </si>
-  <si>
-    <t>Drill the carbon fiber strips, diam 8</t>
-  </si>
-  <si>
-    <t>Assemble, 1kg, Loose</t>
-  </si>
-  <si>
-    <t>Bend carbon fiber strips around one can</t>
-  </si>
-  <si>
-    <t>Ratchet &lt;= 25.4 mm</t>
-  </si>
-  <si>
-    <t>Tighten the carbon fiber strips around one can</t>
-  </si>
-  <si>
-    <t>Reaction Tool &lt;= 25.4 mm</t>
-  </si>
-  <si>
     <t>Bottles drilling for hoses</t>
   </si>
   <si>
-    <t>Assemble, 1 kg, Loose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixing the Velcro to the other can </t>
-  </si>
-  <si>
-    <t>Fixing the Velcro to the fuel tank side</t>
-  </si>
-  <si>
     <t>Hoses cut</t>
   </si>
   <si>
-    <t>Screwdriver &gt; 1 Turn</t>
-  </si>
-  <si>
-    <t>Clamps installation on the frame</t>
-  </si>
-  <si>
-    <t>Assemble, 1kg, Interference</t>
-  </si>
-  <si>
-    <t>Hose mounting on Bottles, Engine and Expansion tank</t>
-  </si>
-  <si>
-    <t>Hose Clamp, Single Wire</t>
-  </si>
-  <si>
     <t>Engine and Expansion tank clamp</t>
   </si>
   <si>
-    <t>Steel Loop Straps, Rubber-Cushioned</t>
-  </si>
-  <si>
-    <t>Attach on the bottom frame pipe</t>
-  </si>
-  <si>
-    <t>Bolt, Aluminum</t>
-  </si>
-  <si>
-    <t>100 mm M6 Bolt</t>
-  </si>
-  <si>
-    <t>Nut, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>M6 Bolt</t>
-  </si>
-  <si>
-    <t>Washer, Grade 8.8 (SAE 5)</t>
-  </si>
-  <si>
-    <t>M4 washers to tighten the collar around the frame</t>
-  </si>
-  <si>
-    <t>Hook and Loop, Hook Side (Velcro)</t>
-  </si>
-  <si>
-    <t>To attach one can to the fuel tank</t>
-  </si>
-  <si>
     <t>Washer, steel stainless</t>
   </si>
   <si>
@@ -626,13 +518,49 @@
   </si>
   <si>
     <t>Turning (+ milling)</t>
+  </si>
+  <si>
+    <t>Drilled hole</t>
+  </si>
+  <si>
+    <t>Hose, Stainless Steel Braided Outer, L.P</t>
+  </si>
+  <si>
+    <t>Cut metallic hosses (grinder)</t>
+  </si>
+  <si>
+    <t>Black paint, aerosol apply</t>
+  </si>
+  <si>
+    <t>Hose clamps</t>
+  </si>
+  <si>
+    <t>Tie wrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attach on the frame </t>
+  </si>
+  <si>
+    <t>Lines from Engine's top and Expansion tank</t>
+  </si>
+  <si>
+    <t>Install can with tie wrap to frame</t>
+  </si>
+  <si>
+    <t>Cans on frame, Hose mounting on cans</t>
+  </si>
+  <si>
+    <t>Painting, aerosol apply</t>
+  </si>
+  <si>
+    <t>For cans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,28 +625,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -859,13 +769,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -892,18 +801,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -918,11 +817,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 13" xfId="1"/>
     <cellStyle name="Normal 4" xfId="2"/>
-    <cellStyle name="Normal_Sheet1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1388,7 +1286,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>21</v>
@@ -1438,7 +1336,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1481,7 +1379,7 @@
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="4">
@@ -1503,7 +1401,7 @@
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="4">
         <v>7</v>
       </c>
@@ -1622,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1698,795 +1596,795 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="13">
         <v>2</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17"/>
+      <c r="D6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17"/>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="D8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17"/>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17"/>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="D11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17"/>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17"/>
+      <c r="F12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17"/>
+      <c r="F13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="D14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17"/>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17"/>
+      <c r="F15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="D16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-      <c r="H16" s="17"/>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="17"/>
+      <c r="F17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17"/>
+      <c r="D18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="17"/>
+      <c r="F20" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="D21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="17"/>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="D23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="17">
-        <v>1</v>
-      </c>
-      <c r="H23" s="17"/>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="D24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="17"/>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="17"/>
+      <c r="D25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="17">
-        <v>1</v>
-      </c>
-      <c r="H26" s="17"/>
+      <c r="D26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="17" t="s">
+      <c r="D27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="17">
-        <v>1</v>
-      </c>
-      <c r="H27" s="17"/>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="17" t="s">
+      <c r="D29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="17">
-        <v>1</v>
-      </c>
-      <c r="H29" s="17"/>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="17">
-        <v>1</v>
-      </c>
-      <c r="H30" s="17"/>
+      <c r="F30" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="17">
-        <v>1</v>
-      </c>
-      <c r="H31" s="17"/>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="17">
-        <v>1</v>
-      </c>
-      <c r="H32" s="17"/>
+      <c r="D32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="17">
-        <v>1</v>
-      </c>
-      <c r="H34" s="17"/>
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="17">
-        <v>1</v>
-      </c>
-      <c r="H36" s="17"/>
+      <c r="D36" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17"/>
+      <c r="F37" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="17" t="s">
+      <c r="D38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="17">
-        <v>1</v>
-      </c>
-      <c r="H38" s="17"/>
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="17" t="s">
+      <c r="D41" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="17">
-        <v>1</v>
-      </c>
-      <c r="H41" s="17"/>
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="17" t="s">
+      <c r="D42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="17">
-        <v>1</v>
-      </c>
-      <c r="H42" s="17"/>
+      <c r="G42" s="13">
+        <v>1</v>
+      </c>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="17" t="s">
+      <c r="E44" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="13">
         <v>4</v>
       </c>
-      <c r="H44" s="17"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="17" t="s">
+      <c r="E45" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="13">
         <v>8</v>
       </c>
-      <c r="H45" s="17"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="17" t="s">
+      <c r="E46" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="13">
         <v>4</v>
       </c>
-      <c r="H46" s="17"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="17">
+      <c r="E47" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="13">
         <v>2</v>
       </c>
-      <c r="H47" s="17"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="17"/>
+      <c r="E48" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" s="13">
+        <v>1</v>
+      </c>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="17">
-        <v>1</v>
-      </c>
-      <c r="H49" s="17"/>
+      <c r="E49" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1</v>
+      </c>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="17">
-        <v>1</v>
-      </c>
-      <c r="H50" s="17"/>
+      <c r="E50" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1</v>
+      </c>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" s="17">
-        <v>1</v>
-      </c>
-      <c r="H51" s="17"/>
+      <c r="E51" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="13">
+        <v>1</v>
+      </c>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
@@ -2512,12 +2410,12 @@
         <v>59</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="17">
+        <v>116</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="13">
         <v>4</v>
       </c>
       <c r="H54" s="7"/>
@@ -2545,13 +2443,13 @@
       <c r="D56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G56" s="17">
+      <c r="E56" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="13">
         <v>6</v>
       </c>
       <c r="H56" s="7"/>
@@ -2579,13 +2477,13 @@
       <c r="D58" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G58" s="17">
+      <c r="E58" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="13">
         <v>2</v>
       </c>
       <c r="H58" s="7"/>
@@ -2613,13 +2511,13 @@
       <c r="D60" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="13">
         <v>1</v>
       </c>
       <c r="H60" s="7"/>
@@ -2631,11 +2529,11 @@
       <c r="D61" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17">
+      <c r="F61" s="13"/>
+      <c r="G61" s="13">
         <v>1</v>
       </c>
       <c r="H61" s="7"/>
@@ -2648,11 +2546,11 @@
       <c r="D62" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17">
+      <c r="F62" s="13"/>
+      <c r="G62" s="13">
         <v>1</v>
       </c>
       <c r="H62" s="7"/>
@@ -2665,11 +2563,11 @@
       <c r="D63" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17">
+      <c r="F63" s="13"/>
+      <c r="G63" s="13">
         <v>1</v>
       </c>
       <c r="H63" s="7"/>
@@ -2682,11 +2580,11 @@
       <c r="D64" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17">
+      <c r="F64" s="13"/>
+      <c r="G64" s="13">
         <v>1</v>
       </c>
       <c r="H64" s="7"/>
@@ -2695,7 +2593,7 @@
     <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>21</v>
@@ -2715,11 +2613,11 @@
       <c r="D66" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17">
+      <c r="F66" s="13"/>
+      <c r="G66" s="13">
         <v>1</v>
       </c>
       <c r="H66" s="7"/>
@@ -2731,13 +2629,13 @@
       <c r="D67" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G67" s="17">
+      <c r="F67" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" s="13">
         <v>1</v>
       </c>
       <c r="H67" s="7"/>
@@ -2749,13 +2647,13 @@
       <c r="D68" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F68" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="17">
+      <c r="F68" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G68" s="13">
         <v>1</v>
       </c>
       <c r="H68" s="7"/>
@@ -2767,13 +2665,13 @@
       <c r="D69" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F69" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G69" s="17">
+      <c r="F69" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="13">
         <v>1</v>
       </c>
       <c r="H69" s="7"/>
@@ -2785,13 +2683,13 @@
       <c r="D70" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F70" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G70" s="17">
+      <c r="F70" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" s="13">
         <v>1</v>
       </c>
       <c r="H70" s="7"/>
@@ -2803,13 +2701,13 @@
       <c r="D71" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F71" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G71" s="17">
+      <c r="F71" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="13">
         <v>1</v>
       </c>
       <c r="H71" s="7"/>
@@ -2821,11 +2719,11 @@
       <c r="D72" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17">
+      <c r="F72" s="13"/>
+      <c r="G72" s="13">
         <v>1</v>
       </c>
       <c r="H72" s="7"/>
@@ -2854,13 +2752,13 @@
       <c r="D74" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="13">
         <v>1</v>
       </c>
       <c r="H74" s="7"/>
@@ -2873,11 +2771,11 @@
       <c r="D75" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17">
+      <c r="F75" s="13"/>
+      <c r="G75" s="13">
         <v>1</v>
       </c>
       <c r="H75" s="7"/>
@@ -2889,11 +2787,11 @@
       <c r="D76" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17">
+      <c r="F76" s="13"/>
+      <c r="G76" s="13">
         <v>1</v>
       </c>
       <c r="H76" s="7"/>
@@ -2905,11 +2803,11 @@
       <c r="D77" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17">
+      <c r="F77" s="13"/>
+      <c r="G77" s="13">
         <v>1</v>
       </c>
       <c r="H77" s="7"/>
@@ -2921,11 +2819,11 @@
       <c r="D78" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17">
+      <c r="F78" s="13"/>
+      <c r="G78" s="13">
         <v>1</v>
       </c>
       <c r="H78" s="7"/>
@@ -2937,11 +2835,11 @@
       <c r="D79" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17">
+      <c r="F79" s="13"/>
+      <c r="G79" s="13">
         <v>1</v>
       </c>
       <c r="H79" s="7"/>
@@ -2969,13 +2867,13 @@
       <c r="D81" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="13">
         <v>1</v>
       </c>
       <c r="H81" s="7"/>
@@ -2987,11 +2885,11 @@
       <c r="D82" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17">
+      <c r="F82" s="13"/>
+      <c r="G82" s="13">
         <v>1</v>
       </c>
       <c r="H82" s="7"/>
@@ -3003,11 +2901,11 @@
       <c r="D83" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17">
+      <c r="F83" s="13"/>
+      <c r="G83" s="13">
         <v>1</v>
       </c>
       <c r="H83" s="7"/>
@@ -3019,15 +2917,15 @@
       <c r="D84" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17">
+      <c r="F84" s="13"/>
+      <c r="G84" s="13">
         <v>1</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3037,11 +2935,11 @@
       <c r="D85" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17">
+      <c r="F85" s="13"/>
+      <c r="G85" s="13">
         <v>1</v>
       </c>
       <c r="H85" s="7"/>
@@ -3069,11 +2967,11 @@
       <c r="D87" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E87" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17">
+      <c r="E87" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13">
         <v>1</v>
       </c>
       <c r="H87" s="7"/>
@@ -3085,13 +2983,13 @@
       <c r="D88" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F88" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G88" s="17">
+      <c r="F88" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G88" s="13">
         <v>1</v>
       </c>
       <c r="H88" s="7"/>
@@ -3103,13 +3001,13 @@
       <c r="D89" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F89" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G89" s="17">
+      <c r="F89" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G89" s="13">
         <v>1</v>
       </c>
       <c r="H89" s="7"/>
@@ -3121,13 +3019,13 @@
       <c r="D90" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G90" s="17">
+      <c r="F90" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G90" s="13">
         <v>1</v>
       </c>
       <c r="H90" s="7"/>
@@ -3139,13 +3037,13 @@
       <c r="D91" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F91" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G91" s="17">
+      <c r="F91" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G91" s="13">
         <v>1</v>
       </c>
       <c r="H91" s="7"/>
@@ -3157,13 +3055,13 @@
       <c r="D92" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F92" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G92" s="17">
+      <c r="F92" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G92" s="13">
         <v>1</v>
       </c>
       <c r="H92" s="7"/>
@@ -3175,11 +3073,11 @@
       <c r="D93" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17">
+      <c r="F93" s="13"/>
+      <c r="G93" s="13">
         <v>1</v>
       </c>
       <c r="H93" s="7"/>
@@ -3207,11 +3105,11 @@
       <c r="D95" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E95" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17">
+      <c r="E95" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13">
         <v>1</v>
       </c>
       <c r="H95" s="7"/>
@@ -3223,13 +3121,13 @@
       <c r="D96" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F96" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G96" s="17">
+      <c r="F96" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" s="13">
         <v>1</v>
       </c>
       <c r="H96" s="7"/>
@@ -3241,13 +3139,13 @@
       <c r="D97" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F97" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G97" s="17">
+      <c r="F97" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G97" s="13">
         <v>1</v>
       </c>
       <c r="H97" s="7"/>
@@ -3259,13 +3157,13 @@
       <c r="D98" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F98" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G98" s="17">
+      <c r="F98" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G98" s="13">
         <v>1</v>
       </c>
       <c r="H98" s="7"/>
@@ -3277,13 +3175,13 @@
       <c r="D99" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F99" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G99" s="17">
+      <c r="F99" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G99" s="13">
         <v>1</v>
       </c>
       <c r="H99" s="7"/>
@@ -3295,13 +3193,13 @@
       <c r="D100" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F100" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G100" s="17">
+      <c r="F100" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G100" s="13">
         <v>1</v>
       </c>
       <c r="H100" s="7"/>
@@ -3313,11 +3211,11 @@
       <c r="D101" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17">
+      <c r="F101" s="13"/>
+      <c r="G101" s="13">
         <v>1</v>
       </c>
       <c r="H101" s="7"/>
@@ -3330,10 +3228,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3342,7 +3240,7 @@
     <col min="2" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" customWidth="1"/>
   </cols>
@@ -3404,442 +3302,186 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16"/>
+      <c r="E4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16"/>
+        <v>156</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>121</v>
+      <c r="E7" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16"/>
+        <v>163</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16"/>
+      <c r="E8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>121</v>
+        <v>59</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16"/>
+        <v>157</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="12">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>117</v>
+        <v>61</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="16">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="G14" s="12">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
